--- a/MainTop/31.07.2025 Таня Озон/print.xlsx
+++ b/MainTop/31.07.2025 Таня Озон/print.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\31.07.2025 Таня Озон\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0404FE-20DC-4937-A96B-AC5877C3A9FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFCDBB4-2E35-419D-B121-96D5EED6C8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
   <si>
     <t>Артикул</t>
   </si>
@@ -70,18 +70,12 @@
     <t>Место</t>
   </si>
   <si>
-    <t>Тип упорядочить</t>
-  </si>
-  <si>
     <t>Термонаклейка Цветы Тюльпаны 5шт белые</t>
   </si>
   <si>
     <t>у3</t>
   </si>
   <si>
-    <t>1_а4</t>
-  </si>
-  <si>
     <t>Термонаклейка Цветы Пионы надпись</t>
   </si>
   <si>
@@ -616,9 +610,6 @@
     <t>б5</t>
   </si>
   <si>
-    <t>2_а5</t>
-  </si>
-  <si>
     <t>Термонаклейка Девочка Ангел с хвостами</t>
   </si>
   <si>
@@ -631,12 +622,6 @@
     <t>д19</t>
   </si>
   <si>
-    <t>Термонаклейка Человек Паук круг надпись снизу</t>
-  </si>
-  <si>
-    <t>б25</t>
-  </si>
-  <si>
     <t>Термонаклейка Девочка в розовом платье</t>
   </si>
   <si>
@@ -749,9 +734,6 @@
   </si>
   <si>
     <t>в5</t>
-  </si>
-  <si>
-    <t>6_а4_настройки_60</t>
   </si>
   <si>
     <t>Термонаклейка Мэрилин Монро геометрия</t>
@@ -1158,10 +1140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q119"/>
+  <dimension ref="A1:Q117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="R1" sqref="Q1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,13 +1200,11 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2">
         <v>2</v>
@@ -1245,7 +1225,7 @@
         <v>14</v>
       </c>
       <c r="H2" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2" s="2">
         <v>2</v>
@@ -1263,22 +1243,20 @@
         <v>22</v>
       </c>
       <c r="N2" s="2">
-        <f>SUM(B2:M2)</f>
-        <v>109</v>
+        <f t="shared" ref="N2:N33" si="0">SUM(B2:M2)</f>
+        <v>110</v>
       </c>
       <c r="O2" s="2">
         <v>0</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="Q2" s="2"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -1317,94 +1295,90 @@
         <v>24</v>
       </c>
       <c r="N3" s="2">
-        <f>SUM(B3:M3)</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q3" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2">
         <v>18</v>
       </c>
       <c r="G4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" s="2">
         <v>10</v>
       </c>
       <c r="I4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" s="2">
         <v>2</v>
       </c>
       <c r="K4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N4" s="2">
-        <f>SUM(B4:M4)</f>
-        <v>39</v>
+        <f t="shared" si="0"/>
+        <v>48</v>
       </c>
       <c r="O4" s="2">
         <v>0</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2">
         <v>14</v>
       </c>
       <c r="G5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="2">
         <v>6</v>
@@ -1413,37 +1387,35 @@
         <v>2</v>
       </c>
       <c r="J5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5" s="2">
         <v>2</v>
       </c>
       <c r="M5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N5" s="2">
-        <f>SUM(B5:M5)</f>
-        <v>32</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1461,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" s="2">
         <v>6</v>
@@ -1473,31 +1445,29 @@
         <v>1</v>
       </c>
       <c r="L6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6" s="2">
         <v>8</v>
       </c>
       <c r="N6" s="2">
-        <f>SUM(B6:M6)</f>
-        <v>29</v>
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -1518,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="2">
         <v>16</v>
@@ -1527,31 +1497,29 @@
         <v>1</v>
       </c>
       <c r="L7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M7" s="2">
         <v>1</v>
       </c>
       <c r="N7" s="2">
-        <f>SUM(B7:M7)</f>
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O7" s="2">
-        <v>0</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -1572,7 +1540,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
@@ -1581,49 +1549,47 @@
         <v>20</v>
       </c>
       <c r="L8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M8" s="2">
         <v>1</v>
       </c>
       <c r="N8" s="2">
-        <f>SUM(B8:M8)</f>
-        <v>31</v>
+        <f t="shared" si="0"/>
+        <v>34</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9" s="3">
         <v>2</v>
@@ -1635,49 +1601,47 @@
         <v>0</v>
       </c>
       <c r="L9" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M9" s="3">
         <v>2</v>
       </c>
       <c r="N9" s="2">
-        <f>SUM(B9:M9)</f>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="O9" s="3">
         <v>0</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B10" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" s="3">
         <v>2</v>
@@ -1695,46 +1659,44 @@
         <v>9</v>
       </c>
       <c r="N10" s="2">
-        <f>SUM(B10:M10)</f>
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="O10" s="3">
         <v>0</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="3">
         <v>6</v>
       </c>
       <c r="F11" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" s="3">
         <v>4</v>
@@ -1743,52 +1705,50 @@
         <v>0</v>
       </c>
       <c r="L11" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M11" s="3">
         <v>7</v>
       </c>
       <c r="N11" s="2">
-        <f>SUM(B11:M11)</f>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="O11" s="3">
         <v>0</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
@@ -1797,37 +1757,35 @@
         <v>0</v>
       </c>
       <c r="L12" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M12" s="3">
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <f>SUM(B12:M12)</f>
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="O12" s="3">
         <v>0</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="3">
         <v>2</v>
@@ -1836,13 +1794,13 @@
         <v>10</v>
       </c>
       <c r="G13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
       </c>
       <c r="I13" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" s="3">
         <v>0</v>
@@ -1851,52 +1809,50 @@
         <v>0</v>
       </c>
       <c r="L13" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M13" s="3">
         <v>5</v>
       </c>
       <c r="N13" s="2">
-        <f>SUM(B13:M13)</f>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="O13" s="3">
         <v>0</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B14" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="3">
         <v>11</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1905,52 +1861,50 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M14" s="3">
         <v>7</v>
       </c>
       <c r="N14" s="2">
-        <f>SUM(B14:M14)</f>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B15" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="3">
         <v>8</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -1959,52 +1913,50 @@
         <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
       </c>
       <c r="N15" s="2">
-        <f>SUM(B15:M15)</f>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B16" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16" s="3">
         <v>6</v>
       </c>
       <c r="D16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="3">
         <v>2</v>
       </c>
       <c r="F16" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J16" s="3">
         <v>4</v>
@@ -2019,46 +1971,44 @@
         <v>0</v>
       </c>
       <c r="N16" s="2">
-        <f>SUM(B16:M16)</f>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="O16" s="3">
         <v>0</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B17" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="3">
         <v>12</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" s="3">
         <v>0</v>
@@ -2067,52 +2017,50 @@
         <v>0</v>
       </c>
       <c r="L17" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
       <c r="N17" s="2">
-        <f>SUM(B17:M17)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="3">
         <v>4</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="3">
         <v>6</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
@@ -2121,52 +2069,50 @@
         <v>0</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
       <c r="N18" s="2">
-        <f>SUM(B18:M18)</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" s="3">
         <v>6</v>
@@ -2175,106 +2121,102 @@
         <v>0</v>
       </c>
       <c r="L19" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M19" s="3">
         <v>10</v>
       </c>
       <c r="N19" s="2">
-        <f>SUM(B19:M19)</f>
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>28</v>
       </c>
       <c r="O19" s="3">
         <v>0</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" s="3">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="2">
-        <f>SUM(B20:M20)</f>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" s="3">
         <v>0</v>
@@ -2283,28 +2225,26 @@
         <v>0</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M21" s="3">
         <v>12</v>
       </c>
       <c r="N21" s="2">
-        <f>SUM(B21:M21)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>26</v>
       </c>
       <c r="O21" s="3">
         <v>0</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="Q21" s="3"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B22" s="3">
         <v>1</v>
@@ -2313,22 +2253,22 @@
         <v>0</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" s="3">
         <v>5</v>
@@ -2337,52 +2277,50 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M22" s="3">
         <v>2</v>
       </c>
       <c r="N22" s="2">
-        <f>SUM(B22:M22)</f>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B23" s="3">
         <v>1</v>
       </c>
       <c r="C23" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="3">
         <v>5</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
@@ -2397,52 +2335,50 @@
         <v>0</v>
       </c>
       <c r="N23" s="2">
-        <f>SUM(B23:M23)</f>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="Q23" s="3"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="3">
         <v>2</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" s="3">
         <v>2</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -2451,46 +2387,44 @@
         <v>8</v>
       </c>
       <c r="N24" s="2">
-        <f>SUM(B24:M24)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="Q24" s="3"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="3">
         <v>0</v>
       </c>
       <c r="D25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="3">
         <v>0</v>
       </c>
       <c r="F25" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="3">
         <v>6</v>
@@ -2505,46 +2439,44 @@
         <v>2</v>
       </c>
       <c r="N25" s="2">
-        <f>SUM(B25:M25)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="O25" s="3">
         <v>0</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q25" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="3">
         <v>0</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G26" s="3">
         <v>2</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
@@ -2559,46 +2491,44 @@
         <v>0</v>
       </c>
       <c r="N26" s="2">
-        <f>SUM(B26:M26)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="3">
         <v>0</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="3">
         <v>10</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
@@ -2613,46 +2543,44 @@
         <v>0</v>
       </c>
       <c r="N27" s="2">
-        <f>SUM(B27:M27)</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="Q27" s="3"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" s="3">
         <v>0</v>
       </c>
       <c r="D28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="3">
         <v>0</v>
       </c>
       <c r="F28" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="3">
         <v>0</v>
@@ -2667,46 +2595,44 @@
         <v>10</v>
       </c>
       <c r="N28" s="2">
-        <f>SUM(B28:M28)</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="O28" s="3">
         <v>0</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q28" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="Q28" s="3"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" s="3">
         <v>0</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G29" s="3">
         <v>4</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -2721,22 +2647,20 @@
         <v>0</v>
       </c>
       <c r="N29" s="2">
-        <f>SUM(B29:M29)</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="Q29" s="3"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B30" s="3">
         <v>1</v>
@@ -2745,22 +2669,22 @@
         <v>0</v>
       </c>
       <c r="D30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="3">
         <v>0</v>
       </c>
       <c r="F30" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="3">
         <v>2</v>
@@ -2775,22 +2699,20 @@
         <v>0</v>
       </c>
       <c r="N30" s="2">
-        <f>SUM(B30:M30)</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="O30" s="3">
         <v>0</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q30" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="Q30" s="3"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B31" s="3">
         <v>0</v>
@@ -2808,13 +2730,13 @@
         <v>2</v>
       </c>
       <c r="G31" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="3">
         <v>4</v>
       </c>
       <c r="I31" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="3">
         <v>0</v>
@@ -2829,22 +2751,20 @@
         <v>2</v>
       </c>
       <c r="N31" s="2">
-        <f>SUM(B31:M31)</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="O31" s="3">
         <v>0</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q31" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="Q31" s="3"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B32" s="4">
         <v>0</v>
@@ -2853,7 +2773,7 @@
         <v>0</v>
       </c>
       <c r="D32" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="4">
         <v>0</v>
@@ -2862,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32" s="4">
         <v>0</v>
@@ -2883,22 +2803,20 @@
         <v>0</v>
       </c>
       <c r="N32" s="2">
-        <f>SUM(B32:M32)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="O32" s="4">
         <v>0</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q32" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="Q32" s="4"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B33" s="4">
         <v>0</v>
@@ -2937,22 +2855,20 @@
         <v>0</v>
       </c>
       <c r="N33" s="2">
-        <f>SUM(B33:M33)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="O33" s="4">
         <v>0</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q33" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="Q33" s="4"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B34" s="4">
         <v>0</v>
@@ -2961,13 +2877,13 @@
         <v>0</v>
       </c>
       <c r="D34" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="4">
         <v>0</v>
       </c>
       <c r="F34" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" s="4">
         <v>0</v>
@@ -2991,22 +2907,20 @@
         <v>8</v>
       </c>
       <c r="N34" s="2">
-        <f>SUM(B34:M34)</f>
-        <v>8</v>
+        <f t="shared" ref="N34:N65" si="1">SUM(B34:M34)</f>
+        <v>10</v>
       </c>
       <c r="O34" s="4">
         <v>0</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q34" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="Q34" s="4"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B35" s="4">
         <v>0</v>
@@ -3045,22 +2959,20 @@
         <v>0</v>
       </c>
       <c r="N35" s="2">
-        <f>SUM(B35:M35)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="O35" s="4">
         <v>0</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q35" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="Q35" s="4"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B36" s="4">
         <v>1</v>
@@ -3099,22 +3011,20 @@
         <v>0</v>
       </c>
       <c r="N36" s="2">
-        <f>SUM(B36:M36)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="O36" s="4">
         <v>0</v>
       </c>
       <c r="P36" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q36" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="Q36" s="4"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B37" s="4">
         <v>1</v>
@@ -3153,22 +3063,20 @@
         <v>0</v>
       </c>
       <c r="N37" s="2">
-        <f>SUM(B37:M37)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="O37" s="4">
         <v>0</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q37" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="Q37" s="4"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B38" s="4">
         <v>1</v>
@@ -3207,22 +3115,20 @@
         <v>5</v>
       </c>
       <c r="N38" s="2">
-        <f>SUM(B38:M38)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="O38" s="4">
         <v>0</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q38" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="Q38" s="4"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B39" s="4">
         <v>0</v>
@@ -3261,22 +3167,20 @@
         <v>0</v>
       </c>
       <c r="N39" s="2">
-        <f>SUM(B39:M39)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="O39" s="4">
         <v>0</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q39" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="Q39" s="4"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B40" s="4">
         <v>0</v>
@@ -3315,22 +3219,20 @@
         <v>2</v>
       </c>
       <c r="N40" s="2">
-        <f>SUM(B40:M40)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="O40" s="4">
         <v>0</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q40" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="Q40" s="4"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B41" s="4">
         <v>0</v>
@@ -3369,22 +3271,20 @@
         <v>0</v>
       </c>
       <c r="N41" s="2">
-        <f>SUM(B41:M41)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="O41" s="4">
         <v>0</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q41" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="Q41" s="4"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B42" s="4">
         <v>0</v>
@@ -3423,22 +3323,20 @@
         <v>0</v>
       </c>
       <c r="N42" s="2">
-        <f>SUM(B42:M42)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="O42" s="4">
         <v>0</v>
       </c>
       <c r="P42" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q42" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="Q42" s="4"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B43" s="4">
         <v>0</v>
@@ -3477,22 +3375,20 @@
         <v>0</v>
       </c>
       <c r="N43" s="2">
-        <f>SUM(B43:M43)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O43" s="4">
         <v>0</v>
       </c>
       <c r="P43" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q43" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="Q43" s="4"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B44" s="4">
         <v>0</v>
@@ -3531,22 +3427,20 @@
         <v>0</v>
       </c>
       <c r="N44" s="2">
-        <f>SUM(B44:M44)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="O44" s="4">
         <v>0</v>
       </c>
       <c r="P44" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q44" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="Q44" s="4"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B45" s="4">
         <v>0</v>
@@ -3585,22 +3479,20 @@
         <v>0</v>
       </c>
       <c r="N45" s="2">
-        <f>SUM(B45:M45)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="O45" s="4">
         <v>0</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q45" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="Q45" s="4"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B46" s="4">
         <v>0</v>
@@ -3639,22 +3531,20 @@
         <v>0</v>
       </c>
       <c r="N46" s="2">
-        <f>SUM(B46:M46)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="O46" s="4">
         <v>0</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q46" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="Q46" s="4"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B47" s="4">
         <v>1</v>
@@ -3693,22 +3583,20 @@
         <v>2</v>
       </c>
       <c r="N47" s="2">
-        <f>SUM(B47:M47)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="O47" s="4">
         <v>0</v>
       </c>
       <c r="P47" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q47" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="Q47" s="4"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B48" s="4">
         <v>1</v>
@@ -3723,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G48" s="4">
         <v>0</v>
@@ -3732,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="I48" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J48" s="4">
         <v>0</v>
@@ -3747,22 +3635,20 @@
         <v>0</v>
       </c>
       <c r="N48" s="2">
-        <f>SUM(B48:M48)</f>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="O48" s="4">
         <v>0</v>
       </c>
       <c r="P48" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q48" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="Q48" s="4"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B49" s="4">
         <v>1</v>
@@ -3801,22 +3687,20 @@
         <v>0</v>
       </c>
       <c r="N49" s="2">
-        <f>SUM(B49:M49)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="O49" s="4">
         <v>0</v>
       </c>
       <c r="P49" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q49" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="Q49" s="4"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B50" s="4">
         <v>1</v>
@@ -3831,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" s="4">
         <v>0</v>
@@ -3855,22 +3739,20 @@
         <v>0</v>
       </c>
       <c r="N50" s="2">
-        <f>SUM(B50:M50)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="O50" s="4">
         <v>0</v>
       </c>
       <c r="P50" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q50" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="Q50" s="4"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B51" s="4">
         <v>1</v>
@@ -3882,10 +3764,10 @@
         <v>0</v>
       </c>
       <c r="E51" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F51" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G51" s="4">
         <v>0</v>
@@ -3909,22 +3791,20 @@
         <v>0</v>
       </c>
       <c r="N51" s="2">
-        <f>SUM(B51:M51)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="O51" s="4">
         <v>0</v>
       </c>
       <c r="P51" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q51" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="Q51" s="4"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B52" s="4">
         <v>1</v>
@@ -3963,22 +3843,20 @@
         <v>7</v>
       </c>
       <c r="N52" s="2">
-        <f>SUM(B52:M52)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="O52" s="4">
         <v>0</v>
       </c>
       <c r="P52" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q52" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="Q52" s="4"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B53" s="4">
         <v>1</v>
@@ -4017,22 +3895,20 @@
         <v>0</v>
       </c>
       <c r="N53" s="2">
-        <f>SUM(B53:M53)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="O53" s="4">
         <v>0</v>
       </c>
       <c r="P53" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q53" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="Q53" s="4"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B54" s="4">
         <v>0</v>
@@ -4071,22 +3947,20 @@
         <v>0</v>
       </c>
       <c r="N54" s="2">
-        <f>SUM(B54:M54)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="O54" s="4">
         <v>0</v>
       </c>
       <c r="P54" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q54" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="Q54" s="4"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B55" s="4">
         <v>0</v>
@@ -4125,22 +3999,20 @@
         <v>0</v>
       </c>
       <c r="N55" s="2">
-        <f>SUM(B55:M55)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="O55" s="4">
         <v>0</v>
       </c>
       <c r="P55" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q55" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="Q55" s="4"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B56" s="4">
         <v>0</v>
@@ -4179,22 +4051,20 @@
         <v>0</v>
       </c>
       <c r="N56" s="2">
-        <f>SUM(B56:M56)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="O56" s="4">
         <v>0</v>
       </c>
       <c r="P56" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q56" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="Q56" s="4"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B57" s="4">
         <v>0</v>
@@ -4233,22 +4103,20 @@
         <v>0</v>
       </c>
       <c r="N57" s="2">
-        <f>SUM(B57:M57)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="O57" s="4">
         <v>0</v>
       </c>
       <c r="P57" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q57" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="Q57" s="4"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B58" s="4">
         <v>0</v>
@@ -4287,22 +4155,20 @@
         <v>0</v>
       </c>
       <c r="N58" s="2">
-        <f>SUM(B58:M58)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="O58" s="4">
         <v>0</v>
       </c>
       <c r="P58" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q58" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="Q58" s="4"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B59" s="4">
         <v>0</v>
@@ -4341,22 +4207,20 @@
         <v>0</v>
       </c>
       <c r="N59" s="2">
-        <f>SUM(B59:M59)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="O59" s="4">
         <v>0</v>
       </c>
       <c r="P59" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q59" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="Q59" s="4"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B60" s="4">
         <v>0</v>
@@ -4395,22 +4259,20 @@
         <v>0</v>
       </c>
       <c r="N60" s="2">
-        <f>SUM(B60:M60)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="O60" s="4">
         <v>0</v>
       </c>
       <c r="P60" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q60" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="Q60" s="4"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B61" s="4">
         <v>0</v>
@@ -4449,22 +4311,20 @@
         <v>0</v>
       </c>
       <c r="N61" s="2">
-        <f>SUM(B61:M61)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="O61" s="4">
         <v>0</v>
       </c>
       <c r="P61" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q61" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="Q61" s="4"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B62" s="4">
         <v>0</v>
@@ -4503,22 +4363,20 @@
         <v>0</v>
       </c>
       <c r="N62" s="2">
-        <f>SUM(B62:M62)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="O62" s="4">
         <v>0</v>
       </c>
       <c r="P62" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q62" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="Q62" s="4"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B63" s="4">
         <v>0</v>
@@ -4557,22 +4415,20 @@
         <v>0</v>
       </c>
       <c r="N63" s="2">
-        <f>SUM(B63:M63)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="O63" s="4">
         <v>0</v>
       </c>
       <c r="P63" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q63" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="Q63" s="4"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B64" s="4">
         <v>0</v>
@@ -4611,22 +4467,20 @@
         <v>4</v>
       </c>
       <c r="N64" s="2">
-        <f>SUM(B64:M64)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="O64" s="4">
         <v>0</v>
       </c>
       <c r="P64" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q64" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="Q64" s="4"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B65" s="4">
         <v>0</v>
@@ -4665,22 +4519,20 @@
         <v>0</v>
       </c>
       <c r="N65" s="2">
-        <f>SUM(B65:M65)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="O65" s="4">
         <v>0</v>
       </c>
       <c r="P65" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q65" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="Q65" s="4"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B66" s="4">
         <v>0</v>
@@ -4719,22 +4571,20 @@
         <v>0</v>
       </c>
       <c r="N66" s="2">
-        <f>SUM(B66:M66)</f>
+        <f t="shared" ref="N66:N96" si="2">SUM(B66:M66)</f>
         <v>4</v>
       </c>
       <c r="O66" s="4">
         <v>0</v>
       </c>
       <c r="P66" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q66" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="Q66" s="4"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B67" s="4">
         <v>0</v>
@@ -4773,22 +4623,20 @@
         <v>0</v>
       </c>
       <c r="N67" s="2">
-        <f>SUM(B67:M67)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="O67" s="4">
         <v>0</v>
       </c>
       <c r="P67" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q67" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="Q67" s="4"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B68" s="4">
         <v>0</v>
@@ -4827,22 +4675,20 @@
         <v>4</v>
       </c>
       <c r="N68" s="2">
-        <f>SUM(B68:M68)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="O68" s="4">
         <v>0</v>
       </c>
       <c r="P68" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q68" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="Q68" s="4"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B69" s="4">
         <v>0</v>
@@ -4881,22 +4727,20 @@
         <v>0</v>
       </c>
       <c r="N69" s="2">
-        <f>SUM(B69:M69)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="O69" s="4">
         <v>0</v>
       </c>
       <c r="P69" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q69" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="Q69" s="4"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B70" s="4">
         <v>0</v>
@@ -4935,22 +4779,20 @@
         <v>0</v>
       </c>
       <c r="N70" s="2">
-        <f>SUM(B70:M70)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="O70" s="4">
         <v>0</v>
       </c>
       <c r="P70" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q70" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="Q70" s="4"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B71" s="4">
         <v>0</v>
@@ -4989,22 +4831,20 @@
         <v>2</v>
       </c>
       <c r="N71" s="2">
-        <f>SUM(B71:M71)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="O71" s="4">
         <v>0</v>
       </c>
       <c r="P71" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q71" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="Q71" s="4"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B72" s="4">
         <v>0</v>
@@ -5043,22 +4883,20 @@
         <v>0</v>
       </c>
       <c r="N72" s="2">
-        <f>SUM(B72:M72)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="O72" s="4">
         <v>0</v>
       </c>
       <c r="P72" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q72" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="Q72" s="4"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B73" s="4">
         <v>0</v>
@@ -5097,22 +4935,20 @@
         <v>0</v>
       </c>
       <c r="N73" s="2">
-        <f>SUM(B73:M73)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O73" s="4">
         <v>0</v>
       </c>
       <c r="P73" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q73" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="Q73" s="4"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B74" s="4">
         <v>0</v>
@@ -5151,22 +4987,20 @@
         <v>0</v>
       </c>
       <c r="N74" s="2">
-        <f>SUM(B74:M74)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O74" s="4">
         <v>0</v>
       </c>
       <c r="P74" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q74" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Q74" s="4"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B75" s="4">
         <v>0</v>
@@ -5205,22 +5039,20 @@
         <v>0</v>
       </c>
       <c r="N75" s="2">
-        <f>SUM(B75:M75)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O75" s="4">
         <v>0</v>
       </c>
       <c r="P75" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q75" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="Q75" s="4"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B76" s="4">
         <v>0</v>
@@ -5259,22 +5091,20 @@
         <v>0</v>
       </c>
       <c r="N76" s="2">
-        <f>SUM(B76:M76)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="O76" s="4">
         <v>0</v>
       </c>
       <c r="P76" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q76" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="Q76" s="4"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B77" s="4">
         <v>0</v>
@@ -5313,22 +5143,20 @@
         <v>0</v>
       </c>
       <c r="N77" s="2">
-        <f>SUM(B77:M77)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O77" s="4">
         <v>0</v>
       </c>
       <c r="P77" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q77" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="Q77" s="4"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B78" s="4">
         <v>0</v>
@@ -5367,22 +5195,20 @@
         <v>0</v>
       </c>
       <c r="N78" s="2">
-        <f>SUM(B78:M78)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O78" s="4">
         <v>0</v>
       </c>
       <c r="P78" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q78" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="Q78" s="4"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B79" s="4">
         <v>0</v>
@@ -5421,22 +5247,20 @@
         <v>0</v>
       </c>
       <c r="N79" s="2">
-        <f>SUM(B79:M79)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O79" s="4">
         <v>0</v>
       </c>
       <c r="P79" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q79" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="Q79" s="4"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B80" s="4">
         <v>0</v>
@@ -5475,22 +5299,20 @@
         <v>0</v>
       </c>
       <c r="N80" s="2">
-        <f>SUM(B80:M80)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O80" s="4">
         <v>0</v>
       </c>
       <c r="P80" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q80" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="Q80" s="4"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B81" s="4">
         <v>2</v>
@@ -5529,22 +5351,20 @@
         <v>0</v>
       </c>
       <c r="N81" s="2">
-        <f>SUM(B81:M81)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O81" s="4">
         <v>0</v>
       </c>
       <c r="P81" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q81" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="Q81" s="4"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B82" s="4">
         <v>0</v>
@@ -5583,22 +5403,20 @@
         <v>0</v>
       </c>
       <c r="N82" s="2">
-        <f>SUM(B82:M82)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O82" s="4">
         <v>0</v>
       </c>
       <c r="P82" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q82" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="Q82" s="4"/>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B83" s="4">
         <v>0</v>
@@ -5637,22 +5455,20 @@
         <v>0</v>
       </c>
       <c r="N83" s="2">
-        <f>SUM(B83:M83)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O83" s="4">
         <v>0</v>
       </c>
       <c r="P83" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q83" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="Q83" s="4"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B84" s="4">
         <v>0</v>
@@ -5691,22 +5507,20 @@
         <v>0</v>
       </c>
       <c r="N84" s="2">
-        <f>SUM(B84:M84)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O84" s="4">
         <v>0</v>
       </c>
       <c r="P84" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q84" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="Q84" s="4"/>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B85" s="4">
         <v>0</v>
@@ -5745,22 +5559,20 @@
         <v>0</v>
       </c>
       <c r="N85" s="2">
-        <f>SUM(B85:M85)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O85" s="4">
         <v>0</v>
       </c>
       <c r="P85" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q85" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="Q85" s="4"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B86" s="4">
         <v>0</v>
@@ -5799,22 +5611,20 @@
         <v>0</v>
       </c>
       <c r="N86" s="2">
-        <f>SUM(B86:M86)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O86" s="4">
         <v>0</v>
       </c>
       <c r="P86" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q86" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="Q86" s="4"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B87" s="4">
         <v>0</v>
@@ -5853,22 +5663,20 @@
         <v>0</v>
       </c>
       <c r="N87" s="2">
-        <f>SUM(B87:M87)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O87" s="4">
         <v>0</v>
       </c>
       <c r="P87" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q87" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="Q87" s="4"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B88" s="4">
         <v>0</v>
@@ -5907,22 +5715,20 @@
         <v>0</v>
       </c>
       <c r="N88" s="2">
-        <f>SUM(B88:M88)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O88" s="4">
         <v>0</v>
       </c>
       <c r="P88" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q88" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="Q88" s="4"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B89" s="4">
         <v>0</v>
@@ -5961,22 +5767,20 @@
         <v>0</v>
       </c>
       <c r="N89" s="2">
-        <f>SUM(B89:M89)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O89" s="4">
         <v>0</v>
       </c>
       <c r="P89" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q89" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="Q89" s="4"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B90" s="4">
         <v>0</v>
@@ -6015,130 +5819,124 @@
         <v>0</v>
       </c>
       <c r="N90" s="2">
-        <f>SUM(B90:M90)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O90" s="4">
         <v>0</v>
       </c>
       <c r="P90" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q90" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="Q90" s="4"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B91" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C91" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D91" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E91" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F91" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G91" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H91" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J91" s="1">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="K91" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L91" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M91" s="1">
         <v>0</v>
       </c>
       <c r="N91" s="2">
-        <f>SUM(B91:M91)</f>
-        <v>44</v>
+        <f t="shared" si="2"/>
+        <v>40</v>
       </c>
       <c r="O91" s="1">
         <v>0</v>
       </c>
       <c r="P91" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q91" s="1" t="s">
-        <v>198</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="Q91" s="1"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B92" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C92" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D92" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E92" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F92" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G92" s="1">
         <v>7</v>
       </c>
       <c r="H92" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" s="1">
         <v>2</v>
       </c>
       <c r="J92" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K92" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L92" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M92" s="1">
         <v>14</v>
       </c>
       <c r="N92" s="2">
-        <f>SUM(B92:M92)</f>
-        <v>40</v>
+        <f t="shared" si="2"/>
+        <v>48</v>
       </c>
       <c r="O92" s="1">
         <v>0</v>
       </c>
       <c r="P92" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q92" s="1" t="s">
-        <v>198</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="Q92" s="1"/>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B93" s="1">
         <v>1</v>
@@ -6147,52 +5945,50 @@
         <v>1</v>
       </c>
       <c r="D93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F93" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G93" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H93" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M93" s="1">
         <v>2</v>
       </c>
       <c r="N93" s="2">
-        <f>SUM(B93:M93)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="O93" s="1">
         <v>0</v>
       </c>
       <c r="P93" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q93" s="1" t="s">
-        <v>198</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="Q93" s="1"/>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B94" s="1">
         <v>1</v>
@@ -6201,214 +5997,206 @@
         <v>1</v>
       </c>
       <c r="D94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H94" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" s="1">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="K94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N94" s="2">
-        <f>SUM(B94:M94)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="O94" s="1">
         <v>0</v>
       </c>
       <c r="P94" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q94" s="1" t="s">
-        <v>198</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="Q94" s="1"/>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D95" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K95" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N95" s="2">
-        <f>SUM(B95:M95)</f>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="O95" s="1">
         <v>0</v>
       </c>
       <c r="P95" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q95" s="1" t="s">
-        <v>198</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="Q95" s="1"/>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B96" s="1">
         <v>1</v>
       </c>
       <c r="C96" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D96" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E96" s="1">
         <v>1</v>
       </c>
       <c r="F96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K96" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N96" s="2">
-        <f>SUM(B96:M96)</f>
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="O96" s="1">
         <v>0</v>
       </c>
       <c r="P96" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q96" s="1" t="s">
-        <v>198</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="Q96" s="1"/>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B97" s="1">
         <v>1</v>
       </c>
       <c r="C97" s="1">
+        <v>1</v>
+      </c>
+      <c r="D97" s="1">
+        <v>1</v>
+      </c>
+      <c r="E97" s="1">
+        <v>1</v>
+      </c>
+      <c r="F97" s="1">
+        <v>1</v>
+      </c>
+      <c r="G97" s="1">
+        <v>1</v>
+      </c>
+      <c r="H97" s="1">
+        <v>1</v>
+      </c>
+      <c r="I97" s="1">
+        <v>1</v>
+      </c>
+      <c r="J97" s="1">
+        <v>0</v>
+      </c>
+      <c r="K97" s="1">
+        <v>0</v>
+      </c>
+      <c r="L97" s="1">
+        <v>0</v>
+      </c>
+      <c r="M97" s="1">
+        <v>0</v>
+      </c>
+      <c r="N97" s="2">
+        <f t="shared" ref="N97:N128" si="3">SUM(B97:M97)</f>
         <v>8</v>
       </c>
-      <c r="D97" s="1">
-        <v>1</v>
-      </c>
-      <c r="E97" s="1">
-        <v>0</v>
-      </c>
-      <c r="F97" s="1">
-        <v>0</v>
-      </c>
-      <c r="G97" s="1">
-        <v>0</v>
-      </c>
-      <c r="H97" s="1">
-        <v>0</v>
-      </c>
-      <c r="I97" s="1">
-        <v>0</v>
-      </c>
-      <c r="J97" s="1">
-        <v>2</v>
-      </c>
-      <c r="K97" s="1">
-        <v>0</v>
-      </c>
-      <c r="L97" s="1">
-        <v>0</v>
-      </c>
-      <c r="M97" s="1">
-        <v>0</v>
-      </c>
-      <c r="N97" s="2">
-        <f>SUM(B97:M97)</f>
-        <v>12</v>
-      </c>
       <c r="O97" s="1">
         <v>0</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q97" s="1" t="s">
-        <v>198</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="Q97" s="1"/>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B98" s="1">
         <v>1</v>
@@ -6417,13 +6205,13 @@
         <v>1</v>
       </c>
       <c r="D98" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F98" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G98" s="1">
         <v>0</v>
@@ -6444,40 +6232,38 @@
         <v>0</v>
       </c>
       <c r="M98" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N98" s="2">
-        <f>SUM(B98:M98)</f>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="O98" s="1">
         <v>0</v>
       </c>
       <c r="P98" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q98" s="1" t="s">
-        <v>198</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="Q98" s="1"/>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99" s="1">
         <v>0</v>
       </c>
       <c r="E99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G99" s="1">
         <v>0</v>
@@ -6498,91 +6284,87 @@
         <v>0</v>
       </c>
       <c r="M99" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N99" s="2">
-        <f>SUM(B99:M99)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="O99" s="1">
         <v>0</v>
       </c>
       <c r="P99" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q99" s="1" t="s">
-        <v>198</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="Q99" s="1"/>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100" s="1">
         <v>0</v>
       </c>
       <c r="E100" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100" s="1">
         <v>0</v>
       </c>
       <c r="H100" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L100" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M100" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N100" s="2">
-        <f>SUM(B100:M100)</f>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
       </c>
       <c r="O100" s="1">
         <v>0</v>
       </c>
       <c r="P100" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q100" s="1" t="s">
-        <v>198</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="Q100" s="1"/>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" s="1">
         <v>0</v>
       </c>
       <c r="E101" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F101" s="1">
         <v>0</v>
@@ -6591,10 +6373,10 @@
         <v>0</v>
       </c>
       <c r="H101" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J101" s="1">
         <v>0</v>
@@ -6603,52 +6385,50 @@
         <v>0</v>
       </c>
       <c r="L101" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M101" s="1">
         <v>0</v>
       </c>
       <c r="N101" s="2">
-        <f>SUM(B101:M101)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="O101" s="1">
         <v>0</v>
       </c>
       <c r="P101" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q101" s="1" t="s">
-        <v>198</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="Q101" s="1"/>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B102" s="1">
         <v>1</v>
       </c>
       <c r="C102" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D102" s="1">
         <v>0</v>
       </c>
       <c r="E102" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F102" s="1">
         <v>0</v>
       </c>
       <c r="G102" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H102" s="1">
         <v>0</v>
       </c>
       <c r="I102" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J102" s="1">
         <v>0</v>
@@ -6663,46 +6443,44 @@
         <v>0</v>
       </c>
       <c r="N102" s="2">
-        <f>SUM(B102:M102)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="O102" s="1">
         <v>0</v>
       </c>
       <c r="P102" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q102" s="1" t="s">
-        <v>198</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="Q102" s="1"/>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B103" s="1">
         <v>1</v>
       </c>
       <c r="C103" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103" s="1">
         <v>0</v>
       </c>
       <c r="F103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G103" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H103" s="1">
         <v>0</v>
       </c>
       <c r="I103" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J103" s="1">
         <v>0</v>
@@ -6711,28 +6489,26 @@
         <v>0</v>
       </c>
       <c r="L103" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M103" s="1">
         <v>0</v>
       </c>
       <c r="N103" s="2">
-        <f>SUM(B103:M103)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="O103" s="1">
         <v>0</v>
       </c>
       <c r="P103" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q103" s="1" t="s">
-        <v>198</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="Q103" s="1"/>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B104" s="1">
         <v>1</v>
@@ -6762,37 +6538,35 @@
         <v>0</v>
       </c>
       <c r="K104" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L104" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M104" s="1">
         <v>0</v>
       </c>
       <c r="N104" s="2">
-        <f>SUM(B104:M104)</f>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="O104" s="1">
         <v>0</v>
       </c>
       <c r="P104" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q104" s="1" t="s">
-        <v>198</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="Q104" s="1"/>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B105" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C105" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D105" s="1">
         <v>1</v>
@@ -6801,10 +6575,10 @@
         <v>0</v>
       </c>
       <c r="F105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105" s="1">
         <v>0</v>
@@ -6816,7 +6590,7 @@
         <v>0</v>
       </c>
       <c r="K105" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L105" s="1">
         <v>0</v>
@@ -6825,25 +6599,23 @@
         <v>0</v>
       </c>
       <c r="N105" s="2">
-        <f>SUM(B105:M105)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="O105" s="1">
         <v>0</v>
       </c>
       <c r="P105" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q105" s="1" t="s">
-        <v>198</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="Q105" s="1"/>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B106" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C106" s="1">
         <v>1</v>
@@ -6855,7 +6627,7 @@
         <v>0</v>
       </c>
       <c r="F106" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G106" s="1">
         <v>0</v>
@@ -6870,7 +6642,7 @@
         <v>0</v>
       </c>
       <c r="K106" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L106" s="1">
         <v>0</v>
@@ -6879,37 +6651,35 @@
         <v>0</v>
       </c>
       <c r="N106" s="2">
-        <f>SUM(B106:M106)</f>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="O106" s="1">
         <v>0</v>
       </c>
       <c r="P106" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q106" s="1" t="s">
-        <v>198</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="Q106" s="1"/>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E107" s="1">
         <v>0</v>
       </c>
       <c r="F107" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G107" s="1">
         <v>0</v>
@@ -6921,40 +6691,38 @@
         <v>0</v>
       </c>
       <c r="J107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M107" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N107" s="2">
-        <f>SUM(B107:M107)</f>
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="O107" s="1">
         <v>0</v>
       </c>
       <c r="P107" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q107" s="1" t="s">
-        <v>198</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="Q107" s="1"/>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B108" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108" s="1">
         <v>0</v>
@@ -6978,31 +6746,29 @@
         <v>0</v>
       </c>
       <c r="K108" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L108" s="1">
+        <v>1</v>
+      </c>
+      <c r="M108" s="1">
+        <v>0</v>
+      </c>
+      <c r="N108" s="2">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="M108" s="1">
-        <v>0</v>
-      </c>
-      <c r="N108" s="2">
-        <f>SUM(B108:M108)</f>
-        <v>4</v>
-      </c>
       <c r="O108" s="1">
         <v>0</v>
       </c>
       <c r="P108" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q108" s="1" t="s">
-        <v>198</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="Q108" s="1"/>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B109" s="1">
         <v>1</v>
@@ -7017,10 +6783,10 @@
         <v>0</v>
       </c>
       <c r="F109" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G109" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109" s="1">
         <v>0</v>
@@ -7032,7 +6798,7 @@
         <v>0</v>
       </c>
       <c r="K109" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L109" s="1">
         <v>0</v>
@@ -7041,22 +6807,20 @@
         <v>0</v>
       </c>
       <c r="N109" s="2">
-        <f>SUM(B109:M109)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="O109" s="1">
         <v>0</v>
       </c>
       <c r="P109" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q109" s="1" t="s">
-        <v>198</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="Q109" s="1"/>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B110" s="1">
         <v>1</v>
@@ -7080,7 +6844,7 @@
         <v>0</v>
       </c>
       <c r="I110" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J110" s="1">
         <v>0</v>
@@ -7095,22 +6859,20 @@
         <v>0</v>
       </c>
       <c r="N110" s="2">
-        <f>SUM(B110:M110)</f>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="O110" s="1">
         <v>0</v>
       </c>
       <c r="P110" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q110" s="1" t="s">
-        <v>198</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="Q110" s="1"/>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B111" s="1">
         <v>1</v>
@@ -7122,7 +6884,7 @@
         <v>0</v>
       </c>
       <c r="E111" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F111" s="1">
         <v>0</v>
@@ -7134,7 +6896,7 @@
         <v>0</v>
       </c>
       <c r="I111" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J111" s="1">
         <v>0</v>
@@ -7149,22 +6911,20 @@
         <v>0</v>
       </c>
       <c r="N111" s="2">
-        <f>SUM(B111:M111)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="O111" s="1">
         <v>0</v>
       </c>
       <c r="P111" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q111" s="1" t="s">
-        <v>198</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="Q111" s="1"/>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B112" s="1">
         <v>1</v>
@@ -7173,52 +6933,50 @@
         <v>1</v>
       </c>
       <c r="D112" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F112" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G112" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I112" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K112" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L112" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M112" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N112" s="2">
-        <f>SUM(B112:M112)</f>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>18</v>
       </c>
       <c r="O112" s="1">
         <v>0</v>
       </c>
       <c r="P112" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q112" s="1" t="s">
-        <v>198</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="Q112" s="1"/>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B113" s="1">
         <v>0</v>
@@ -7239,7 +6997,7 @@
         <v>0</v>
       </c>
       <c r="H113" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I113" s="1">
         <v>0</v>
@@ -7254,25 +7012,23 @@
         <v>0</v>
       </c>
       <c r="M113" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N113" s="2">
-        <f>SUM(B113:M113)</f>
-        <v>16</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="O113" s="1">
         <v>0</v>
       </c>
       <c r="P113" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q113" s="1" t="s">
-        <v>243</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="Q113" s="1"/>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B114" s="1">
         <v>0</v>
@@ -7284,7 +7040,7 @@
         <v>0</v>
       </c>
       <c r="E114" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F114" s="1">
         <v>0</v>
@@ -7305,28 +7061,26 @@
         <v>0</v>
       </c>
       <c r="L114" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M114" s="1">
+        <v>0</v>
+      </c>
+      <c r="N114" s="2">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="N114" s="2">
-        <f>SUM(B114:M114)</f>
-        <v>4</v>
-      </c>
       <c r="O114" s="1">
         <v>0</v>
       </c>
       <c r="P114" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q114" s="1" t="s">
-        <v>243</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="Q114" s="1"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B115" s="1">
         <v>0</v>
@@ -7359,40 +7113,38 @@
         <v>0</v>
       </c>
       <c r="L115" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M115" s="1">
         <v>0</v>
       </c>
       <c r="N115" s="2">
-        <f>SUM(B115:M115)</f>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="O115" s="1">
         <v>0</v>
       </c>
       <c r="P115" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q115" s="1" t="s">
         <v>243</v>
       </c>
+      <c r="Q115" s="1"/>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B116" s="1">
         <v>0</v>
       </c>
       <c r="C116" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D116" s="1">
         <v>0</v>
       </c>
       <c r="E116" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F116" s="1">
         <v>0</v>
@@ -7419,34 +7171,32 @@
         <v>0</v>
       </c>
       <c r="N116" s="2">
-        <f>SUM(B116:M116)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="O116" s="1">
         <v>0</v>
       </c>
       <c r="P116" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q116" s="1" t="s">
-        <v>243</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="Q116" s="1"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B117" s="1">
         <v>0</v>
       </c>
       <c r="C117" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D117" s="1">
         <v>0</v>
       </c>
       <c r="E117" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F117" s="1">
         <v>0</v>
@@ -7473,124 +7223,19 @@
         <v>0</v>
       </c>
       <c r="N117" s="2">
-        <f>SUM(B117:M117)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="O117" s="1">
         <v>0</v>
       </c>
       <c r="P117" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q117" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B118" s="1">
-        <v>0</v>
-      </c>
-      <c r="C118" s="1">
-        <v>0</v>
-      </c>
-      <c r="D118" s="1">
-        <v>0</v>
-      </c>
-      <c r="E118" s="1">
-        <v>2</v>
-      </c>
-      <c r="F118" s="1">
-        <v>0</v>
-      </c>
-      <c r="G118" s="1">
-        <v>0</v>
-      </c>
-      <c r="H118" s="1">
-        <v>0</v>
-      </c>
-      <c r="I118" s="1">
-        <v>0</v>
-      </c>
-      <c r="J118" s="1">
-        <v>0</v>
-      </c>
-      <c r="K118" s="1">
-        <v>0</v>
-      </c>
-      <c r="L118" s="1">
-        <v>0</v>
-      </c>
-      <c r="M118" s="1">
-        <v>0</v>
-      </c>
-      <c r="N118" s="2">
-        <f>SUM(B118:M118)</f>
-        <v>2</v>
-      </c>
-      <c r="O118" s="1">
-        <v>0</v>
-      </c>
-      <c r="P118" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q118" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B119">
-        <f t="shared" ref="B119:E119" si="0">SUM(B2:B118)</f>
-        <v>45</v>
-      </c>
-      <c r="C119">
-        <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-      <c r="D119">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="E119">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="F119">
-        <f>SUM(F2:F118)</f>
-        <v>201</v>
-      </c>
-      <c r="G119">
-        <f t="shared" ref="G119:M119" si="1">SUM(G2:G118)</f>
-        <v>54</v>
-      </c>
-      <c r="H119">
-        <f t="shared" si="1"/>
-        <v>106</v>
-      </c>
-      <c r="I119">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="J119">
-        <f t="shared" si="1"/>
-        <v>169</v>
-      </c>
-      <c r="K119">
-        <f t="shared" si="1"/>
-        <v>87</v>
-      </c>
-      <c r="L119">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="M119">
-        <f t="shared" si="1"/>
-        <v>194</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="Q117" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="257" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>